--- a/daniela/Wetland_plots.xlsx
+++ b/daniela/Wetland_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\daniela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C957D8F5-3209-4812-856B-62339E77B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA399C39-188B-4BFE-B426-B1F51DD86611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B38B7A6-FDDF-4A4E-B873-9F242B69730D}"/>
   </bookViews>
@@ -227,7 +227,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Wetland03</a:t>
+              <a:t>Wetland11</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -271,7 +271,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -308,8 +308,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20621582548083128"/>
-                  <c:y val="-0.27628802667076086"/>
+                  <c:x val="0.20431891594945981"/>
+                  <c:y val="-0.22138801261829652"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -344,42 +344,42 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$11:$D$14</c:f>
+              <c:f>Sheet1!$E$54:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>810</c:v>
+                  <c:v>31.561090000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>822</c:v>
+                  <c:v>22.505759999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>853</c:v>
+                  <c:v>25.141799999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>877</c:v>
+                  <c:v>24.558499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$11:$E$14</c:f>
+              <c:f>Sheet1!$D$54:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15192149999999999</c:v>
+                  <c:v>31.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17748649999999999</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.119463</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14386550000000001</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,7 +387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E531-4CB1-895B-AFB9ACD0D012}"/>
+              <c16:uniqueId val="{00000000-676D-4AE3-8202-084D462D59B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,11 +399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="714568432"/>
-        <c:axId val="714569416"/>
+        <c:axId val="711613872"/>
+        <c:axId val="711614856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="714568432"/>
+        <c:axId val="711613872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +444,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
+                  <a:t>WL(cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -515,12 +515,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714569416"/>
+        <c:crossAx val="711614856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="714569416"/>
+        <c:axId val="711614856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +561,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
+                  <a:t>Area(m^2)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -632,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714568432"/>
+        <c:crossAx val="711613872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -688,3486 +688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland 02</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.18784950104587181"/>
-                  <c:y val="-0.22685015290519878"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$6:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4549</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3917</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$6:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.1217371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37125829999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36358980000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25858680000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7F2-4937-BA00-B5A945749D52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="490730928"/>
-        <c:axId val="490734208"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="490730928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="3000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490734208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="490734208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="490730928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland04</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12983662576240207"/>
-                  <c:y val="-0.21563953488372092"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$16:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>268</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$16:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.41212969999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44248739999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18325820000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26992630000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EBC-4669-AE65-E516F431AA14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="501444736"/>
-        <c:axId val="501447032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="501444736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501447032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="501447032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="501444736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland05</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10224776991185605"/>
-                  <c:y val="-0.27715841304960848"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$21:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>603.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>489.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>558</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$21:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.46727740000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4876723</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45536680000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41871720000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44116179999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42812939999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.42835380000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32E3-427E-91C7-D38AC61ED6FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="711901104"/>
-        <c:axId val="711902088"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="711901104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="711902088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="711902088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="711901104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland06</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12021731487439385"/>
-                  <c:y val="-0.28621923826919754"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$29:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>250.84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$29:$E$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.39992329999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26640819999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1920077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10440140000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79DB-4779-B19C-DF645EE2E75D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="714960600"/>
-        <c:axId val="714959944"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="714960600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="714959944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="714959944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(M)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="714960600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland07</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.4158154663916374E-2"/>
-                  <c:y val="-0.24621707008846117"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>622.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>497.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>118</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$34:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.38159850000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29433900000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.335812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1793526</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A084-403B-9CC1-9E670CBADE18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="658193392"/>
-        <c:axId val="658187488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="658193392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="658187488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="658187488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="658193392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland08</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1755875353216152"/>
-                  <c:y val="-0.20589189189189189"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Sheet1!$D$39:$D$40,Sheet1!$D$42)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>198.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>174.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Sheet1!$E$39:$E$40,Sheet1!$E$42)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.45538719999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41273130000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40207500000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C5DF-44AE-A230-D779F4BC51A4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="662195096"/>
-        <c:axId val="662199688"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="662195096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m^2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662199688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="662199688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="662195096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Wetland09</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10768773604047624"/>
-                  <c:y val="-0.21244003721436838"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Sheet1!$D$44:$D$45,Sheet1!$D$47)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>25.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Sheet1!$E$44:$E$45,Sheet1!$E$47)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.61880120000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61310089999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58719940000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-925E-43F0-ACE0-03B712F1CC1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="709718936"/>
-        <c:axId val="709719264"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="709718936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Area(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709719264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="709719264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>WL(m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709718936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4246,7 +767,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4319,6 +840,27 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$E$54:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>31.561090000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.505759999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.141799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.558499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$D$54:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4327,34 +869,13 @@
                   <c:v>31.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$54:$E$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.31561090000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2250576</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25141799999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.245585</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,7 +883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-676D-4AE3-8202-084D462D59B3}"/>
+              <c16:uniqueId val="{00000001-72EA-4315-BE63-F6DE97284025}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4663,7 +1184,4021 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland02</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7725210560980676E-2"/>
+                  <c:y val="-0.21593846153846155"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.17371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.125830000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.358980000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.85868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE02-43A9-9BB6-BBD11697E577}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="486789824"/>
+        <c:axId val="486791136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="486789824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486791136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="486791136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486789824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland03</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11321984142226124"/>
+                  <c:y val="-0.51259371021736055"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.192149999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.748649999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.946300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.386550000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F98-4AE8-90DC-5A40821B733C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714568432"/>
+        <c:axId val="714569416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714568432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714569416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714569416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714568432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland04</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12586161546777141"/>
+                  <c:y val="-0.25165656209906667"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.212969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.248739999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.32582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.992630000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F342-485B-BD0F-E777ECCA4F13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="501444736"/>
+        <c:axId val="501447032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="501444736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501447032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="501447032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="501444736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland05</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14919070562168324"/>
+                  <c:y val="-0.22711974110032362"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46.727740000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.767229999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.536680000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.871720000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.11618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.812939999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.835380000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>603.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>489.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79F4-4EF1-A78C-8092A83B2B00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="711901104"/>
+        <c:axId val="711902088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711901104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711902088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711902088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711901104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland06</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1814542453951693"/>
+                  <c:y val="-0.26048675733715104"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.992329999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.640819999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.200769999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.440140000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C73B-4106-92B0-4F70A74C0535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714960600"/>
+        <c:axId val="714959944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714960600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714959944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714959944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714960600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland07</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.24157487072205164"/>
+                  <c:y val="-0.23253918495297807"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38.159849999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.433900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.581200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.93526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>622.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>497.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C66-4DCB-85B3-33A8C65B2EA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="658193392"/>
+        <c:axId val="658187488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="658193392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658187488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="658187488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658193392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland08</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8224846153333282E-2"/>
+                  <c:y val="-0.21306364641382577"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$E$39:$E$40,Sheet1!$E$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.538719999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.273130000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.207500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$39:$D$40,Sheet1!$D$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>198.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC0D-4AC9-9D0D-980348CE0DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="662195096"/>
+        <c:axId val="662199688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="662195096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662199688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="662199688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662195096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland09</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22832338995600235"/>
+                  <c:y val="-0.22626959247648903"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$E$44:$E$45,Sheet1!$E$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>61.880120000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.310089999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.719940000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$44:$D$45,Sheet1!$D$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98DA-4C1A-A019-EB727809046F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="709718936"/>
+        <c:axId val="709719264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="709718936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>WL(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709719264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="709719264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area(m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709718936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5539,7 +6074,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6055,7 +6590,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6571,7 +7106,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7087,7 +7622,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7603,7 +8138,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8119,7 +8654,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8635,7 +9170,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9151,7 +9686,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9667,27 +10202,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66EF6202-3825-50FF-C6F0-9D03ACA86FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A008975D-C032-7071-2251-D1A80FEFC72B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9707,23 +10758,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501649</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD6BB79-96F7-46CE-25BC-9E8837518470}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32D1BDA-F4FE-00AC-985D-D6209F576F3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9743,27 +10794,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3CF0DB-86DF-21DF-5480-5722E1409BDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75126DB0-D561-4434-8B27-CE55CC190F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9779,27 +10832,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92993DC3-21E0-8402-0DE0-0C68787A205E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855A0E75-7A8C-4DD5-964B-C361F8A74D4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9815,27 +10870,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450851</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B80CE1-D649-E599-03AB-A9F0F6FCEE5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304BF7E3-D602-4936-A5A3-DF4FB8E38FA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9851,27 +10908,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3E8B21-B8FD-F027-CB1A-057DE8D16AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A013E38B-53A3-4C95-973E-8C4B127AF489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9887,27 +10946,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AED99D5-FB13-C1AC-2756-74C6530F4F5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B162252C-E5A9-4788-8B9E-A0627D10FBC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9923,27 +10984,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469901</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F139D1-B048-D894-BDAC-2D9FA51E97AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B148BB-E455-4612-9388-13BD2F977FE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9959,27 +11022,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482601</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336551</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A008975D-C032-7071-2251-D1A80FEFC72B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F02578-C863-470D-AF56-E5D7C6F31AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9988,6 +11053,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413C87F3-0BBB-4085-B3CA-745D02716CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10295,8 +11398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E464477F-116A-4E9C-816B-4F54BA1815B7}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10408,7 +11511,8 @@
         <v>3520</v>
       </c>
       <c r="E6">
-        <v>0.1217371</v>
+        <f>0.1217371*100</f>
+        <v>12.17371</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10425,7 +11529,8 @@
         <v>4549</v>
       </c>
       <c r="E7">
-        <v>0.37125829999999999</v>
+        <f>100*0.3712583</f>
+        <v>37.125830000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10442,7 +11547,8 @@
         <v>4197</v>
       </c>
       <c r="E8">
-        <v>0.36358980000000002</v>
+        <f>100*0.3635898</f>
+        <v>36.358980000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10459,7 +11565,8 @@
         <v>3917</v>
       </c>
       <c r="E9">
-        <v>0.25858680000000001</v>
+        <f>100*0.2585868</f>
+        <v>25.85868</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10496,7 +11603,8 @@
         <v>810</v>
       </c>
       <c r="E11">
-        <v>0.15192149999999999</v>
+        <f>100*0.1519215</f>
+        <v>15.192149999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10510,10 +11618,11 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="D12">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E12">
-        <v>0.17748649999999999</v>
+        <f>100*0.1774865</f>
+        <v>17.748649999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10527,10 +11636,11 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D13">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E13">
-        <v>0.119463</v>
+        <f>100*0.119463</f>
+        <v>11.946300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10547,7 +11657,8 @@
         <v>877</v>
       </c>
       <c r="E14">
-        <v>0.14386550000000001</v>
+        <f>100*0.1438655</f>
+        <v>14.386550000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10584,7 +11695,8 @@
         <v>463</v>
       </c>
       <c r="E16">
-        <v>0.41212969999999999</v>
+        <f>100*0.4121297</f>
+        <v>41.212969999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10601,7 +11713,8 @@
         <v>592</v>
       </c>
       <c r="E17">
-        <v>0.44248739999999998</v>
+        <f>100*0.4424874</f>
+        <v>44.248739999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10615,10 +11728,11 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>0.18325820000000001</v>
+        <f>100*0.1832582</f>
+        <v>18.32582</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10635,7 +11749,8 @@
         <v>268</v>
       </c>
       <c r="E19">
-        <v>0.26992630000000001</v>
+        <f>100*0.2699263</f>
+        <v>26.992630000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10672,7 +11787,8 @@
         <v>612</v>
       </c>
       <c r="E21">
-        <v>0.46727740000000001</v>
+        <f>100*0.4672774</f>
+        <v>46.727740000000004</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10689,7 +11805,8 @@
         <v>598</v>
       </c>
       <c r="E22">
-        <v>0.4876723</v>
+        <f>100*0.4876723</f>
+        <v>48.767229999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10706,7 +11823,8 @@
         <v>603.12</v>
       </c>
       <c r="E23">
-        <v>0.45536680000000002</v>
+        <f>100*0.4553668</f>
+        <v>45.536680000000004</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10723,7 +11841,8 @@
         <v>489.99</v>
       </c>
       <c r="E24">
-        <v>0.41871720000000001</v>
+        <f>100*0.4187172</f>
+        <v>41.871720000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10740,7 +11859,8 @@
         <v>571</v>
       </c>
       <c r="E25">
-        <v>0.44116179999999999</v>
+        <f>100*0.4411618</f>
+        <v>44.11618</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10757,7 +11877,8 @@
         <v>529</v>
       </c>
       <c r="E26">
-        <v>0.42812939999999999</v>
+        <f>100*0.4281294</f>
+        <v>42.812939999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10774,7 +11895,8 @@
         <v>558</v>
       </c>
       <c r="E27">
-        <v>0.42835380000000001</v>
+        <f>100*0.4283538</f>
+        <v>42.835380000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10811,7 +11933,8 @@
         <v>250.84</v>
       </c>
       <c r="E29">
-        <v>0.39992329999999998</v>
+        <f>100*0.3999233</f>
+        <v>39.992329999999995</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10828,7 +11951,8 @@
         <v>250.59</v>
       </c>
       <c r="E30">
-        <v>0.26640819999999998</v>
+        <f>100*0.2664082</f>
+        <v>26.640819999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10845,7 +11969,8 @@
         <v>184</v>
       </c>
       <c r="E31">
-        <v>0.1920077</v>
+        <f>100*0.1920077</f>
+        <v>19.200769999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10862,7 +11987,8 @@
         <v>24</v>
       </c>
       <c r="E32">
-        <v>0.10440140000000001</v>
+        <f>100*0.1044014</f>
+        <v>10.440140000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10899,7 +12025,8 @@
         <v>622.52</v>
       </c>
       <c r="E34">
-        <v>0.38159850000000001</v>
+        <f>100*0.3815985</f>
+        <v>38.159849999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10916,7 +12043,8 @@
         <v>497.71</v>
       </c>
       <c r="E35">
-        <v>0.29433900000000002</v>
+        <f>100*0.294339</f>
+        <v>29.433900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10933,7 +12061,8 @@
         <v>521</v>
       </c>
       <c r="E36">
-        <v>0.335812</v>
+        <f>100*0.335812</f>
+        <v>33.581200000000003</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10950,7 +12079,8 @@
         <v>118</v>
       </c>
       <c r="E37">
-        <v>0.1793526</v>
+        <f>100*0.1793526</f>
+        <v>17.93526</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10987,7 +12117,8 @@
         <v>198.01</v>
       </c>
       <c r="E39">
-        <v>0.45538719999999999</v>
+        <f>100*0.4553872</f>
+        <v>45.538719999999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11004,7 +12135,8 @@
         <v>174.83</v>
       </c>
       <c r="E40">
-        <v>0.41273130000000002</v>
+        <f>100*0.4127313</f>
+        <v>41.273130000000002</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11038,7 +12170,8 @@
         <v>152</v>
       </c>
       <c r="E42">
-        <v>0.40207500000000002</v>
+        <f>100*0.402075</f>
+        <v>40.207500000000003</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11075,7 +12208,8 @@
         <v>25.28</v>
       </c>
       <c r="E44">
-        <v>0.61880120000000005</v>
+        <f>100*0.6188012</f>
+        <v>61.880120000000005</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11092,7 +12226,8 @@
         <v>25.14</v>
       </c>
       <c r="E45">
-        <v>0.61310089999999995</v>
+        <f>100*0.6131009</f>
+        <v>61.310089999999995</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11126,7 +12261,8 @@
         <v>22</v>
       </c>
       <c r="E47">
-        <v>0.58719940000000004</v>
+        <f>100*0.5871994</f>
+        <v>58.719940000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11160,7 +12296,8 @@
         <v>56.85</v>
       </c>
       <c r="E49">
-        <v>0.64173530000000001</v>
+        <f>100*0.6417353</f>
+        <v>64.17353</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11177,7 +12314,8 @@
         <v>48.84</v>
       </c>
       <c r="E50">
-        <v>0.55651519999999999</v>
+        <f>100*0.5565152</f>
+        <v>55.651519999999998</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11248,7 +12386,8 @@
         <v>31.01</v>
       </c>
       <c r="E54">
-        <v>0.31561090000000003</v>
+        <f>100*0.3156109</f>
+        <v>31.561090000000004</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11262,10 +12401,11 @@
         <v>0.53125</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E55">
-        <v>0.2250576</v>
+        <f>100*0.2250576</f>
+        <v>22.505759999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11282,7 +12422,8 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.25141799999999997</v>
+        <f>100*0.251418</f>
+        <v>25.141799999999996</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11296,10 +12437,11 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>0.245585</v>
+        <f>100*0.245585</f>
+        <v>24.558499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/daniela/Wetland_plots.xlsx
+++ b/daniela/Wetland_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\daniela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA399C39-188B-4BFE-B426-B1F51DD86611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE581F0-E6AE-4542-BD2E-DC0A1C5CBE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B38B7A6-FDDF-4A4E-B873-9F242B69730D}"/>
   </bookViews>
@@ -2693,12 +2693,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2725,12 +2722,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2761,24 +2755,47 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2807,10 +2824,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx2"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -2907,20 +2921,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2928,12 +2928,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2960,12 +2957,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2982,14 +2976,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3000,10 +2993,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3024,20 +3014,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3045,12 +3021,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3077,12 +3050,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3099,14 +3069,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3117,10 +3086,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3159,7 +3125,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3703,12 +3669,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3735,12 +3698,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3771,24 +3731,47 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3798,8 +3781,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.24157487072205164"/>
-                  <c:y val="-0.23253918495297807"/>
+                  <c:x val="0.24260115036185517"/>
+                  <c:y val="-0.24783699059561129"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3817,10 +3800,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx2"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -3899,20 +3879,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3920,12 +3886,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3952,12 +3915,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3974,14 +3934,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3992,10 +3951,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4016,20 +3972,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4037,12 +3979,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4069,12 +4008,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4091,14 +4027,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4109,10 +4044,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4151,7 +4083,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -8139,6 +8071,485 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8654,36 +9065,30 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8696,7 +9101,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8704,7 +9109,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8712,17 +9117,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -8731,9 +9133,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -8756,35 +9157,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8796,18 +9197,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -8816,10 +9218,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8835,21 +9237,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8859,23 +9256,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8884,64 +9280,156 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8949,102 +9437,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9052,17 +9444,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -9071,12 +9463,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9085,14 +9474,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9101,10 +9489,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -9113,20 +9498,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9135,20 +9519,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9158,530 +9538,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -11398,8 +11256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E464477F-116A-4E9C-816B-4F54BA1815B7}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/daniela/Wetland_plots.xlsx
+++ b/daniela/Wetland_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\daniela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F19C3-E4B6-4014-BB09-69B460A225DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B17CA6-2078-45A6-91D7-6D05ECFFB1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{3B38B7A6-FDDF-4A4E-B873-9F242B69730D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
   <si>
     <t>Wetland 1</t>
   </si>
@@ -113,12 +113,15 @@
   <si>
     <t>y = 0.0062x + 0.0746</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +129,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -162,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,6 +189,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2770,7 +2797,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3522,7 +3549,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4250,7 +4277,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5303,6 +5330,370 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="691175968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wetland10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19432295666779117"/>
+                  <c:y val="-0.20925246826516219"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$63:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64386650000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55651519999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60979689999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56777319999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55633169999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$63:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27DC-4F9A-AC2B-BC6AAED0834D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="339588352"/>
+        <c:axId val="514982872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="339588352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514982872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514982872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339588352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9288,6 +9679,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15761,6 +16192,522 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20200,15 +21147,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:colOff>296863</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120651</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20523,16 +21470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20552,6 +21499,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E91BE0B-4A9F-C8E9-267D-FDEDDBEC2B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21914,22 +22897,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF43260D-4DE0-4EAE-AFD9-D4EE0BF6FA2C}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -21938,15 +22924,18 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>44728</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.45624999999999999</v>
       </c>
       <c r="D2">
@@ -21955,15 +22944,19 @@
       <c r="E2">
         <v>0.35152630000000001</v>
       </c>
+      <c r="F2">
+        <f>AVERAGE(D2:D6)</f>
+        <v>5328.3720000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>44740</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0.4597222222222222</v>
       </c>
       <c r="D3">
@@ -21973,14 +22966,14 @@
         <v>0.40296219999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>44866</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.3833333333333333</v>
       </c>
       <c r="D4">
@@ -21990,14 +22983,14 @@
         <v>0.31953690000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>44888</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.55208333333333337</v>
       </c>
       <c r="D5">
@@ -22007,14 +23000,14 @@
         <v>0.34320509999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>44954</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.61805555555555558</v>
       </c>
       <c r="D6">
@@ -22024,14 +23017,14 @@
         <v>0.34181830000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -22041,14 +23034,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>44728</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.47638888888888892</v>
       </c>
       <c r="D8">
@@ -22058,14 +23051,14 @@
         <v>0.1217371</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>44740</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.47986111111111113</v>
       </c>
       <c r="D9">
@@ -22075,14 +23068,14 @@
         <v>0.37317539999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>44866</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.3923611111111111</v>
       </c>
       <c r="D10">
@@ -22092,14 +23085,14 @@
         <v>0.36358980000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>44888</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>0.5625</v>
       </c>
       <c r="D11">
@@ -22109,14 +23102,14 @@
         <v>0.25858680000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>44954</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>0.6333333333333333</v>
       </c>
       <c r="D12">
@@ -22126,14 +23119,14 @@
         <v>-2.0063469999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>44975</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>0.58333333333333337</v>
       </c>
       <c r="D13">
@@ -22143,14 +23136,14 @@
         <v>-8.7555240000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
@@ -22160,14 +23153,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>44728</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>0.50347222222222221</v>
       </c>
       <c r="D15">
@@ -22176,15 +23169,19 @@
       <c r="E15">
         <v>0.15192149999999999</v>
       </c>
+      <c r="F15">
+        <f>AVERAGE(D15:D19)</f>
+        <v>840.90400000000011</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>44740</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.48888888888888887</v>
       </c>
       <c r="D16">
@@ -22194,14 +23191,14 @@
         <v>0.17748649999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>44866</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.40277777777777773</v>
       </c>
       <c r="D17">
@@ -22211,14 +23208,14 @@
         <v>0.12114560000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>44888</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>0.56666666666666665</v>
       </c>
       <c r="D18">
@@ -22228,14 +23225,14 @@
         <v>0.14386550000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>44954</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.63888888888888895</v>
       </c>
       <c r="D19">
@@ -22245,14 +23242,14 @@
         <v>0.14583360000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
@@ -22262,14 +23259,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>44728</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>0.51874999999999993</v>
       </c>
       <c r="D21">
@@ -22279,14 +23276,14 @@
         <v>0.41212969999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>44741</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>0.37708333333333338</v>
       </c>
       <c r="D22">
@@ -22296,14 +23293,14 @@
         <v>0.44248739999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>44754</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>0.4284722222222222</v>
       </c>
       <c r="D23">
@@ -22313,14 +23310,14 @@
         <v>0.46395310000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>44866</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>0.43402777777777773</v>
       </c>
       <c r="D24">
@@ -22330,14 +23327,14 @@
         <v>0.18079049999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>44888</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>0.59375</v>
       </c>
       <c r="D25">
@@ -22347,14 +23344,14 @@
         <v>0.26992630000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>44954</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>0.57638888888888895</v>
       </c>
       <c r="D26">
@@ -22364,14 +23361,14 @@
         <v>0.2348471</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>44975</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>0.58333333333333337</v>
       </c>
       <c r="D27">
@@ -22381,14 +23378,14 @@
         <v>6.3917570000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
@@ -22398,14 +23395,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>44728</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>0.55833333333333335</v>
       </c>
       <c r="D29">
@@ -22415,14 +23412,14 @@
         <v>0.46727740000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>44740</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>0.43194444444444446</v>
       </c>
       <c r="D30">
@@ -22432,14 +23429,14 @@
         <v>0.4876723</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>44754</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>0.4284722222222222</v>
       </c>
       <c r="D31">
@@ -22449,14 +23446,14 @@
         <v>0.49802269999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>44831</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>0.57986111111111105</v>
       </c>
       <c r="D32">
@@ -22466,14 +23463,14 @@
         <v>0.41871720000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>44860</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>0.52083333333333337</v>
       </c>
       <c r="D33">
@@ -22483,14 +23480,14 @@
         <v>0.44116179999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>44866</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>0.44791666666666669</v>
       </c>
       <c r="D34">
@@ -22500,14 +23497,14 @@
         <v>0.42812939999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>44885</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>0.4291666666666667</v>
       </c>
       <c r="D35">
@@ -22517,14 +23514,14 @@
         <v>0.42835380000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
@@ -22534,14 +23531,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>44728</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>0.58680555555555558</v>
       </c>
       <c r="D37">
@@ -22551,14 +23548,14 @@
         <v>0.2698855</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>44753</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>0.42152777777777778</v>
       </c>
       <c r="D38">
@@ -22568,14 +23565,14 @@
         <v>0.39992329999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>44827</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>0.55347222222222225</v>
       </c>
       <c r="D39">
@@ -22585,14 +23582,14 @@
         <v>0.26640819999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>44860</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>0.54513888888888895</v>
       </c>
       <c r="D40">
@@ -22602,14 +23599,14 @@
         <v>0.1920077</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>44885</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>0.45208333333333334</v>
       </c>
       <c r="D41">
@@ -22619,14 +23616,14 @@
         <v>0.10440140000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>6</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>44954</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <v>0.65625</v>
       </c>
       <c r="D42">
@@ -22636,14 +23633,14 @@
         <v>0.189805</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>6</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>44975</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <v>0.59375</v>
       </c>
       <c r="D43">
@@ -22653,14 +23650,14 @@
         <v>7.6725559999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
@@ -22670,14 +23667,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>7</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>44728</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="7">
         <v>0.60486111111111118</v>
       </c>
       <c r="D45">
@@ -22687,14 +23684,14 @@
         <v>0.35135290000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>44753</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="7">
         <v>0.55555555555555558</v>
       </c>
       <c r="D46">
@@ -22704,14 +23701,14 @@
         <v>0.38159850000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>44827</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="7">
         <v>0.5395833333333333</v>
       </c>
       <c r="D47">
@@ -22721,14 +23718,14 @@
         <v>0.29433900000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>7</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>44860</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="7">
         <v>0.56944444444444442</v>
       </c>
       <c r="D48">
@@ -22738,14 +23735,14 @@
         <v>0.335812</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>44885</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="7">
         <v>0.46875</v>
       </c>
       <c r="D49">
@@ -22755,14 +23752,14 @@
         <v>0.1793526</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
@@ -22772,14 +23769,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>44754</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="7">
         <v>0.51041666666666663</v>
       </c>
       <c r="D51">
@@ -22789,14 +23786,14 @@
         <v>0.45538719999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>8</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>44831</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="7">
         <v>0.50347222222222221</v>
       </c>
       <c r="D52">
@@ -22806,14 +23803,14 @@
         <v>0.41273130000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>8</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>44853</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="7">
         <v>0.55208333333333337</v>
       </c>
       <c r="D53">
@@ -22823,14 +23820,14 @@
         <v>0.42328569999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>8</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>44885</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>0.54305555555555551</v>
       </c>
       <c r="D54">
@@ -22840,14 +23837,14 @@
         <v>0.40207500000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>8</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>44897</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="7">
         <v>0.48958333333333331</v>
       </c>
       <c r="D55">
@@ -22857,14 +23854,14 @@
         <v>0.3895015</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>13</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
@@ -22874,14 +23871,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>9</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="6">
         <v>44754</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="7">
         <v>0.50347222222222221</v>
       </c>
       <c r="D57">
@@ -22891,14 +23888,14 @@
         <v>0.61880120000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
         <v>44831</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="7">
         <v>0.51180555555555551</v>
       </c>
       <c r="D58">
@@ -22908,14 +23905,14 @@
         <v>0.61310089999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>9</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
         <v>44853</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="7">
         <v>0.55902777777777779</v>
       </c>
       <c r="D59">
@@ -22925,14 +23922,14 @@
         <v>0.60370900000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>9</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>44866</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="7">
         <v>0.53125</v>
       </c>
       <c r="D60">
@@ -22942,14 +23939,14 @@
         <v>0.58719940000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="6">
         <v>44897</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>0.48958333333333331</v>
       </c>
       <c r="D61">
@@ -22959,14 +23956,14 @@
         <v>0.5872503</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
@@ -22976,14 +23973,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>10</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>44754</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="7">
         <v>0.46875</v>
       </c>
       <c r="D63">
@@ -22993,14 +23990,14 @@
         <v>0.64386650000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>10</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>44831</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="7">
         <v>0.49583333333333335</v>
       </c>
       <c r="D64">
@@ -23010,65 +24007,65 @@
         <v>0.55651519999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>44853</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="7">
         <v>0.55208333333333337</v>
       </c>
       <c r="D65">
         <v>58</v>
       </c>
-      <c r="E65" t="s">
-        <v>5</v>
+      <c r="E65">
+        <v>0.60979689999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>44885</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="7">
         <v>0.46875</v>
       </c>
       <c r="D66">
         <v>55</v>
       </c>
-      <c r="E66" t="s">
-        <v>5</v>
+      <c r="E66">
+        <v>0.56777319999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>10</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>44897</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="7">
         <v>0.48958333333333331</v>
       </c>
       <c r="D67">
         <v>53.43</v>
       </c>
-      <c r="E67" t="s">
-        <v>5</v>
+      <c r="E67">
+        <v>0.55633169999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>15</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
@@ -23078,14 +24075,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>11</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="6">
         <v>44754</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="7">
         <v>0.46180555555555558</v>
       </c>
       <c r="D69">
@@ -23095,14 +24092,14 @@
         <v>0.3322021</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>11</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="6">
         <v>44827</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="7">
         <v>0.53125</v>
       </c>
       <c r="D70">
@@ -23112,14 +24109,14 @@
         <v>0.2250576</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>11</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>44860</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="7">
         <v>0.55208333333333337</v>
       </c>
       <c r="D71">
@@ -23129,14 +24126,14 @@
         <v>0.25141799999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>11</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>44885</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="7">
         <v>0.47916666666666669</v>
       </c>
       <c r="D72">
